--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB099C60-6DF5-450D-9D25-AE1B8FE1447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>TCName</t>
   </si>
@@ -52,13 +53,22 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Create_Account_with mandatory_fields_TC04</t>
+  </si>
+  <si>
+    <t>Aname</t>
+  </si>
+  <si>
+    <t>HDFC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +83,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,14 +127,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,14 +161,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +209,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -247,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,19 +454,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +482,11 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +499,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +512,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -490,6 +527,20 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -499,24 +550,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>TCName</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>MrGit</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Add_new_contact_in_application_TCContact01</t>
   </si>
 </sst>
 </file>
@@ -89,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,14 +133,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,18 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +485,14 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +505,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +518,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -490,6 +533,29 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -516,7 +582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/data.xlsx
+++ b/src/test/resources/TestData/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>TCName</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Add_new_contact_in_application_TCContact01</t>
+  </si>
+  <si>
+    <t>trumo</t>
+  </si>
+  <si>
+    <t>usa</t>
+  </si>
+  <si>
+    <t>MrGit</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -89,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,14 +133,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,18 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +485,14 @@
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +505,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -475,7 +518,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -490,6 +533,29 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -516,7 +582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
